--- a/data/exports/complete_flex_properties_ENHANCED.xlsx
+++ b/data/exports/complete_flex_properties_ENHANCED.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\flex-property-pipeline\data\exports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B390BC-C386-4446-AD49-D9CC9EE5C9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E1F2AF-D531-42DD-BAF0-EABE96CEB98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enhanced Properties" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
     <sheet name="Sample Data" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11484" uniqueCount="3521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11483" uniqueCount="3521">
   <si>
     <t>flex_score</t>
   </si>
@@ -10949,12 +10949,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA612"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP580" workbookViewId="0">
-      <selection activeCell="AS77" sqref="AS77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" customWidth="1"/>
     <col min="23" max="23" width="25.42578125" customWidth="1"/>
     <col min="25" max="25" width="13.85546875" customWidth="1"/>
     <col min="26" max="26" width="12.7109375" customWidth="1"/>
@@ -10981,9 +10986,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11142,9 +11145,7 @@
       <c r="C2" t="s">
         <v>54</v>
       </c>
-      <c r="D2">
-        <v>20088</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" t="s">
         <v>55</v>
       </c>
